--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>笔试(8.17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -462,6 +470,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,7 +60,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.25一面</t>
+    <t>8.25一面(一二面都结束了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐内推</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +104,24 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,9 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,34 +454,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -456,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -464,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -479,6 +515,31 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>8.26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>搜狐内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都不知道咋投的。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9初面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,6 +558,28 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>9.9初面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,6 +588,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,35 @@
   </si>
   <si>
     <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团校招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面结束等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14上午10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15笔试（9月15日 15:30–17:00
+3号教学楼（教3）337教室）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +177,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,11 +213,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,17 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -505,15 +555,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -529,6 +582,9 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
@@ -587,6 +643,9 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -597,6 +656,34 @@
       </c>
       <c r="C9" t="s">
         <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,18 @@
   <si>
     <t>9.15笔试（9月15日 15:30–17:00
 3号教学楼（教3）337教室）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好像投过滴滴。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,15 +539,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D19:D21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
@@ -686,6 +699,25 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9.11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +142,18 @@
   </si>
   <si>
     <t>我好像投过滴滴。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,10 +331,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -554,7 +556,7 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -582,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -599,7 +601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -613,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -624,7 +626,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>8.26</v>
       </c>
@@ -635,7 +637,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>8.2799999999999994</v>
       </c>
@@ -646,7 +648,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -660,7 +662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9.8000000000000007</v>
       </c>
@@ -674,7 +676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9.9</v>
       </c>
@@ -685,7 +687,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="40.5">
       <c r="A11">
         <v>9.1</v>
       </c>
@@ -699,7 +701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9.11</v>
       </c>
@@ -713,9 +715,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>9.16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -731,6 +739,20 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9.18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,11 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.15笔试（9月15日 15:30–17:00
-3号教学楼（教3）337教室）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日头条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,14 +137,105 @@
   </si>
   <si>
     <t>我好像投过滴滴。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天宣讲可能快笔试了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗（网页搜索和商业广告）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月17号笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了个测评感觉要挂。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐事</t>
+  </si>
+  <si>
+    <t>9.19上午10点笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网龙（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可能是福州的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面挂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是没过笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能实习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米（我也不知道什么时候投的。。，状态时候已处理了，但是看起来不是纯前端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众点评（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +285,51 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -225,30 +356,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,10 +458,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +492,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -554,7 +683,7 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -582,49 +711,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" s="13" customFormat="1">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>2.1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="8" customFormat="1">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>8.26</v>
       </c>
@@ -635,7 +765,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>8.2799999999999994</v>
       </c>
@@ -646,81 +776,227 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" s="13" customFormat="1">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:5" s="10" customFormat="1">
+      <c r="A9" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1">
+      <c r="A10" s="10">
         <v>9.9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1">
+      <c r="A11" s="10">
         <v>9.1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9.11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>2.2999999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>9.17</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
+      </c>
+      <c r="C14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9.17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>9.17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9.17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>9.18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>9.18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>9.23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A21">
+        <v>9.23</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>9.23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>9.23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>9.23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>9.23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,22 @@
   </si>
   <si>
     <t>新浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9。27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -994,6 +1010,30 @@
         <v>53</v>
       </c>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>9.27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>9.27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,82 @@
   </si>
   <si>
     <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10。9笔试完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一前面试没结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.9做了一个测评感觉不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一前笔试的现在等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.9三面结束等结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国信息通信研究院（Web开发工程师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿（信息管理和开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10。12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17上午9点半面试，联想大厦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,13 +427,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -390,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -699,7 +790,7 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -713,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+    <row r="2" spans="1:6" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -727,7 +818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
+    <row r="3" spans="1:6" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -744,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="13" customFormat="1">
+    <row r="4" spans="1:6" s="13" customFormat="1">
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
@@ -758,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1">
+    <row r="5" spans="1:6" s="8" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -770,7 +861,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>8.26</v>
       </c>
@@ -781,7 +872,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>8.2799999999999994</v>
       </c>
@@ -792,7 +883,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="13" customFormat="1">
+    <row r="8" spans="1:6" s="13" customFormat="1">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
@@ -806,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1">
+    <row r="9" spans="1:6" s="10" customFormat="1">
       <c r="A9" s="10">
         <v>9.8000000000000007</v>
       </c>
@@ -823,7 +914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1">
+    <row r="10" spans="1:6" s="10" customFormat="1">
       <c r="A10" s="10">
         <v>9.9</v>
       </c>
@@ -840,7 +931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1">
+    <row r="11" spans="1:6" s="10" customFormat="1">
       <c r="A11" s="10">
         <v>9.1</v>
       </c>
@@ -857,7 +948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9.11</v>
       </c>
@@ -871,26 +962,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6" s="10" customFormat="1">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="D13" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="15" customFormat="1">
+      <c r="A14" s="15">
         <v>9.17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>9.17</v>
       </c>
@@ -904,15 +1004,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="16" spans="1:6" s="8" customFormat="1">
+      <c r="A16" s="8">
         <v>9.17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -949,6 +1053,9 @@
       <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -961,13 +1068,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A21">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="8">
         <v>9.23</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -980,15 +1088,18 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="23" spans="1:5" s="10" customFormat="1">
+      <c r="A23" s="10">
         <v>9.23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1018,12 +1129,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" s="15" customFormat="1">
+      <c r="A27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="15" t="s">
         <v>56</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1032,6 +1146,78 @@
       </c>
       <c r="B28" s="6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>10.1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="15" customFormat="1">
+      <c r="B37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/实习找工作！！/简历投递统计表.xlsx
+++ b/实习找工作！！/简历投递统计表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>建行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国信息通信研究院（Web开发工程师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿（信息管理和开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10。12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>百度外卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,35 +319,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国信息通信研究院（Web开发工程师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人寿（信息管理和开发）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10。12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13评测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17上午9点半面试，联想大厦</t>
+    <t>10.14面签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17 9:30面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突了调整时间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动服务、河南移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月末笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +447,14 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -460,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -775,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,9 +813,10 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -804,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1">
+    <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -818,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1">
+    <row r="3" spans="1:7" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -835,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="13" customFormat="1">
+    <row r="4" spans="1:7" s="13" customFormat="1">
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
@@ -849,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1">
+    <row r="5" spans="1:7" s="8" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -861,7 +887,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>8.26</v>
       </c>
@@ -872,7 +898,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>8.2799999999999994</v>
       </c>
@@ -883,7 +909,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="13" customFormat="1">
+    <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
@@ -897,7 +923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1">
+    <row r="9" spans="1:7" s="10" customFormat="1">
       <c r="A9" s="10">
         <v>9.8000000000000007</v>
       </c>
@@ -914,7 +940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1">
+    <row r="10" spans="1:7" s="10" customFormat="1">
       <c r="A10" s="10">
         <v>9.9</v>
       </c>
@@ -931,7 +957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1">
+    <row r="11" spans="1:7" s="10" customFormat="1">
       <c r="A11" s="10">
         <v>9.1</v>
       </c>
@@ -948,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9.11</v>
       </c>
@@ -962,7 +988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1">
+    <row r="13" spans="1:7" s="10" customFormat="1">
       <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
@@ -970,7 +996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="15" customFormat="1">
+    <row r="14" spans="1:7" s="15" customFormat="1">
       <c r="A14" s="15">
         <v>9.17</v>
       </c>
@@ -987,10 +1013,13 @@
         <v>59</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>9.17</v>
       </c>
@@ -1004,7 +1033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1">
+    <row r="16" spans="1:7" s="8" customFormat="1">
       <c r="A16" s="8">
         <v>9.17</v>
       </c>
@@ -1164,12 +1193,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>68</v>
+    <row r="31" spans="1:5" s="7" customFormat="1">
+      <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1177,7 +1209,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1185,7 +1217,7 @@
         <v>10.1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1193,7 +1225,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1201,12 +1233,12 @@
         <v>10.119999999999999</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>58</v>
@@ -1214,10 +1246,18 @@
     </row>
     <row r="37" spans="1:4" s="15" customFormat="1">
       <c r="B37" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
